--- a/2021_05_05 Technologiedaten Online.xlsx
+++ b/2021_05_05 Technologiedaten Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmolina\Desktop\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFF8D47-2CF1-4266-8EEF-2A3DA200E0F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4179D-47D7-4056-BB06-FC7FDB208ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungen" sheetId="3" r:id="rId1"/>
@@ -3179,30 +3179,6 @@
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="23" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3225,6 +3201,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4261,10 +4261,10 @@
   <dimension ref="A1:BA198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D126" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F151" sqref="F151:Q151"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4334,23 +4334,23 @@
       <c r="Q1" s="5" t="s">
         <v>689</v>
       </c>
-      <c r="AF1" s="146" t="s">
+      <c r="AF1" s="152" t="s">
         <v>128</v>
       </c>
-      <c r="AG1" s="143" t="s">
+      <c r="AG1" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="AH1" s="143"/>
-      <c r="AI1" s="143" t="s">
+      <c r="AH1" s="155"/>
+      <c r="AI1" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="AJ1" s="143"/>
-      <c r="AK1" s="143"/>
-      <c r="AL1" s="143"/>
-      <c r="AM1" s="143" t="s">
+      <c r="AJ1" s="155"/>
+      <c r="AK1" s="155"/>
+      <c r="AL1" s="155"/>
+      <c r="AM1" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="AN1" s="143"/>
+      <c r="AN1" s="155"/>
       <c r="AO1" s="37" t="s">
         <v>132</v>
       </c>
@@ -4362,11 +4362,11 @@
       <c r="B2" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="142" t="s">
+      <c r="C2" s="151" t="s">
         <v>86</v>
       </c>
-      <c r="D2" s="142"/>
-      <c r="E2" s="142"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
       <c r="F2" s="13" t="s">
         <v>64</v>
       </c>
@@ -4393,15 +4393,15 @@
         <v>79</v>
       </c>
       <c r="Q2" s="13"/>
-      <c r="AF2" s="146"/>
-      <c r="AG2" s="143"/>
-      <c r="AH2" s="143"/>
-      <c r="AI2" s="143"/>
-      <c r="AJ2" s="143"/>
-      <c r="AK2" s="143"/>
-      <c r="AL2" s="143"/>
-      <c r="AM2" s="143"/>
-      <c r="AN2" s="143"/>
+      <c r="AF2" s="152"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="155"/>
+      <c r="AK2" s="155"/>
+      <c r="AL2" s="155"/>
+      <c r="AM2" s="155"/>
+      <c r="AN2" s="155"/>
       <c r="AO2" s="37" t="s">
         <v>133</v>
       </c>
@@ -4434,7 +4434,7 @@
       <c r="K3" s="18">
         <v>230</v>
       </c>
-      <c r="L3" s="148" t="s">
+      <c r="L3" s="154" t="s">
         <v>691</v>
       </c>
       <c r="M3" s="18">
@@ -4449,26 +4449,26 @@
       <c r="P3" s="18">
         <v>457</v>
       </c>
-      <c r="Q3" s="148" t="s">
+      <c r="Q3" s="154" t="s">
         <v>692</v>
       </c>
       <c r="AF3" s="36"/>
-      <c r="AG3" s="144" t="s">
+      <c r="AG3" s="156" t="s">
         <v>135</v>
       </c>
-      <c r="AH3" s="144"/>
-      <c r="AI3" s="144" t="s">
+      <c r="AH3" s="156"/>
+      <c r="AI3" s="156" t="s">
         <v>136</v>
       </c>
-      <c r="AJ3" s="144"/>
-      <c r="AK3" s="144" t="s">
+      <c r="AJ3" s="156"/>
+      <c r="AK3" s="156" t="s">
         <v>137</v>
       </c>
-      <c r="AL3" s="144"/>
-      <c r="AM3" s="144" t="s">
+      <c r="AL3" s="156"/>
+      <c r="AM3" s="156" t="s">
         <v>138</v>
       </c>
-      <c r="AN3" s="144"/>
+      <c r="AN3" s="156"/>
       <c r="AO3" s="37" t="s">
         <v>134</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="K4" s="18">
         <v>240</v>
       </c>
-      <c r="L4" s="148"/>
+      <c r="L4" s="154"/>
       <c r="M4" s="18">
         <v>286</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="P4" s="18">
         <v>471</v>
       </c>
-      <c r="Q4" s="148"/>
+      <c r="Q4" s="154"/>
       <c r="AF4" s="36"/>
       <c r="AG4" s="38" t="s">
         <v>139</v>
@@ -4567,12 +4567,12 @@
         <v>195</v>
       </c>
       <c r="J5" s="18">
-        <v>277.87</v>
+        <v>227.87</v>
       </c>
       <c r="K5" s="18">
         <v>250</v>
       </c>
-      <c r="L5" s="148"/>
+      <c r="L5" s="154"/>
       <c r="M5" s="18">
         <v>298</v>
       </c>
@@ -4585,7 +4585,7 @@
       <c r="P5" s="18">
         <v>492.56</v>
       </c>
-      <c r="Q5" s="148"/>
+      <c r="Q5" s="154"/>
       <c r="AF5" s="39" t="s">
         <v>145</v>
       </c>
@@ -4651,7 +4651,7 @@
       <c r="K6" s="18">
         <v>313</v>
       </c>
-      <c r="L6" s="148"/>
+      <c r="L6" s="154"/>
       <c r="M6" s="18">
         <v>357.4</v>
       </c>
@@ -4664,21 +4664,21 @@
       <c r="P6" s="18">
         <v>564</v>
       </c>
-      <c r="Q6" s="148"/>
-      <c r="R6" s="147"/>
-      <c r="S6" s="147"/>
-      <c r="T6" s="147"/>
-      <c r="U6" s="147"/>
-      <c r="V6" s="147"/>
-      <c r="W6" s="147"/>
-      <c r="X6" s="147"/>
-      <c r="Y6" s="147"/>
-      <c r="Z6" s="147"/>
-      <c r="AA6" s="147"/>
-      <c r="AB6" s="147"/>
-      <c r="AC6" s="147"/>
-      <c r="AD6" s="147"/>
-      <c r="AE6" s="147"/>
+      <c r="Q6" s="154"/>
+      <c r="R6" s="153"/>
+      <c r="S6" s="153"/>
+      <c r="T6" s="153"/>
+      <c r="U6" s="153"/>
+      <c r="V6" s="153"/>
+      <c r="W6" s="153"/>
+      <c r="X6" s="153"/>
+      <c r="Y6" s="153"/>
+      <c r="Z6" s="153"/>
+      <c r="AA6" s="153"/>
+      <c r="AB6" s="153"/>
+      <c r="AC6" s="153"/>
+      <c r="AD6" s="153"/>
+      <c r="AE6" s="153"/>
       <c r="AF6" s="39" t="s">
         <v>154</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="K7" s="18">
         <v>313.60000000000002</v>
       </c>
-      <c r="L7" s="148"/>
+      <c r="L7" s="154"/>
       <c r="M7" s="18">
         <v>358.4</v>
       </c>
@@ -4757,21 +4757,21 @@
       <c r="P7" s="18">
         <v>567</v>
       </c>
-      <c r="Q7" s="148"/>
-      <c r="R7" s="147"/>
-      <c r="S7" s="147"/>
-      <c r="T7" s="147"/>
-      <c r="U7" s="147"/>
-      <c r="V7" s="147"/>
-      <c r="W7" s="147"/>
-      <c r="X7" s="147"/>
-      <c r="Y7" s="147"/>
-      <c r="Z7" s="147"/>
-      <c r="AA7" s="147"/>
-      <c r="AB7" s="147"/>
-      <c r="AC7" s="147"/>
-      <c r="AD7" s="147"/>
-      <c r="AE7" s="147"/>
+      <c r="Q7" s="154"/>
+      <c r="R7" s="153"/>
+      <c r="S7" s="153"/>
+      <c r="T7" s="153"/>
+      <c r="U7" s="153"/>
+      <c r="V7" s="153"/>
+      <c r="W7" s="153"/>
+      <c r="X7" s="153"/>
+      <c r="Y7" s="153"/>
+      <c r="Z7" s="153"/>
+      <c r="AA7" s="153"/>
+      <c r="AB7" s="153"/>
+      <c r="AC7" s="153"/>
+      <c r="AD7" s="153"/>
+      <c r="AE7" s="153"/>
       <c r="AF7" s="39" t="s">
         <v>161</v>
       </c>
@@ -4837,7 +4837,7 @@
       <c r="K8" s="18">
         <v>324.60000000000002</v>
       </c>
-      <c r="L8" s="148"/>
+      <c r="L8" s="154"/>
       <c r="M8" s="18">
         <v>368.4</v>
       </c>
@@ -4850,21 +4850,21 @@
       <c r="P8" s="18">
         <v>579.5</v>
       </c>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="147"/>
-      <c r="S8" s="147"/>
-      <c r="T8" s="147"/>
-      <c r="U8" s="147"/>
-      <c r="V8" s="147"/>
-      <c r="W8" s="147"/>
-      <c r="X8" s="147"/>
-      <c r="Y8" s="147"/>
-      <c r="Z8" s="147"/>
-      <c r="AA8" s="147"/>
-      <c r="AB8" s="147"/>
-      <c r="AC8" s="147"/>
-      <c r="AD8" s="147"/>
-      <c r="AE8" s="147"/>
+      <c r="Q8" s="154"/>
+      <c r="R8" s="153"/>
+      <c r="S8" s="153"/>
+      <c r="T8" s="153"/>
+      <c r="U8" s="153"/>
+      <c r="V8" s="153"/>
+      <c r="W8" s="153"/>
+      <c r="X8" s="153"/>
+      <c r="Y8" s="153"/>
+      <c r="Z8" s="153"/>
+      <c r="AA8" s="153"/>
+      <c r="AB8" s="153"/>
+      <c r="AC8" s="153"/>
+      <c r="AD8" s="153"/>
+      <c r="AE8" s="153"/>
       <c r="AF8" s="39" t="s">
         <v>168</v>
       </c>
@@ -4931,7 +4931,7 @@
       <c r="K9" s="18">
         <v>335</v>
       </c>
-      <c r="L9" s="148"/>
+      <c r="L9" s="154"/>
       <c r="M9" s="18">
         <v>382</v>
       </c>
@@ -4944,21 +4944,21 @@
       <c r="P9" s="18">
         <v>596</v>
       </c>
-      <c r="Q9" s="148"/>
-      <c r="R9" s="147"/>
-      <c r="S9" s="147"/>
-      <c r="T9" s="147"/>
-      <c r="U9" s="147"/>
-      <c r="V9" s="147"/>
-      <c r="W9" s="147"/>
-      <c r="X9" s="147"/>
-      <c r="Y9" s="147"/>
-      <c r="Z9" s="147"/>
-      <c r="AA9" s="147"/>
-      <c r="AB9" s="147"/>
-      <c r="AC9" s="147"/>
-      <c r="AD9" s="147"/>
-      <c r="AE9" s="147"/>
+      <c r="Q9" s="154"/>
+      <c r="R9" s="153"/>
+      <c r="S9" s="153"/>
+      <c r="T9" s="153"/>
+      <c r="U9" s="153"/>
+      <c r="V9" s="153"/>
+      <c r="W9" s="153"/>
+      <c r="X9" s="153"/>
+      <c r="Y9" s="153"/>
+      <c r="Z9" s="153"/>
+      <c r="AA9" s="153"/>
+      <c r="AB9" s="153"/>
+      <c r="AC9" s="153"/>
+      <c r="AD9" s="153"/>
+      <c r="AE9" s="153"/>
       <c r="AF9" s="39" t="s">
         <v>175</v>
       </c>
@@ -5024,7 +5024,7 @@
       <c r="K10" s="20">
         <v>349.98</v>
       </c>
-      <c r="L10" s="148"/>
+      <c r="L10" s="154"/>
       <c r="M10" s="20">
         <v>294.83</v>
       </c>
@@ -5037,21 +5037,21 @@
       <c r="P10" s="20">
         <v>419.9</v>
       </c>
-      <c r="Q10" s="148"/>
-      <c r="R10" s="147"/>
-      <c r="S10" s="147"/>
-      <c r="T10" s="147"/>
-      <c r="U10" s="147"/>
-      <c r="V10" s="147"/>
-      <c r="W10" s="147"/>
-      <c r="X10" s="147"/>
-      <c r="Y10" s="147"/>
-      <c r="Z10" s="147"/>
-      <c r="AA10" s="147"/>
-      <c r="AB10" s="147"/>
-      <c r="AC10" s="147"/>
-      <c r="AD10" s="147"/>
-      <c r="AE10" s="147"/>
+      <c r="Q10" s="154"/>
+      <c r="R10" s="153"/>
+      <c r="S10" s="153"/>
+      <c r="T10" s="153"/>
+      <c r="U10" s="153"/>
+      <c r="V10" s="153"/>
+      <c r="W10" s="153"/>
+      <c r="X10" s="153"/>
+      <c r="Y10" s="153"/>
+      <c r="Z10" s="153"/>
+      <c r="AA10" s="153"/>
+      <c r="AB10" s="153"/>
+      <c r="AC10" s="153"/>
+      <c r="AD10" s="153"/>
+      <c r="AE10" s="153"/>
       <c r="AF10" s="39" t="s">
         <v>182</v>
       </c>
@@ -5115,7 +5115,7 @@
       <c r="K11" s="21">
         <v>48</v>
       </c>
-      <c r="L11" s="148"/>
+      <c r="L11" s="154"/>
       <c r="M11" s="21">
         <v>60</v>
       </c>
@@ -5128,21 +5128,21 @@
       <c r="P11" s="21">
         <v>72</v>
       </c>
-      <c r="Q11" s="148"/>
-      <c r="R11" s="147"/>
-      <c r="S11" s="147"/>
-      <c r="T11" s="147"/>
-      <c r="U11" s="147"/>
-      <c r="V11" s="147"/>
-      <c r="W11" s="147"/>
-      <c r="X11" s="147"/>
-      <c r="Y11" s="147"/>
-      <c r="Z11" s="147"/>
-      <c r="AA11" s="147"/>
-      <c r="AB11" s="147"/>
-      <c r="AC11" s="147"/>
-      <c r="AD11" s="147"/>
-      <c r="AE11" s="147"/>
+      <c r="Q11" s="154"/>
+      <c r="R11" s="153"/>
+      <c r="S11" s="153"/>
+      <c r="T11" s="153"/>
+      <c r="U11" s="153"/>
+      <c r="V11" s="153"/>
+      <c r="W11" s="153"/>
+      <c r="X11" s="153"/>
+      <c r="Y11" s="153"/>
+      <c r="Z11" s="153"/>
+      <c r="AA11" s="153"/>
+      <c r="AB11" s="153"/>
+      <c r="AC11" s="153"/>
+      <c r="AD11" s="153"/>
+      <c r="AE11" s="153"/>
       <c r="AF11" s="39" t="s">
         <v>187</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="K12" s="18">
         <v>7.3</v>
       </c>
-      <c r="L12" s="148"/>
+      <c r="L12" s="154"/>
       <c r="M12" s="18">
         <v>7.2</v>
       </c>
@@ -5221,21 +5221,21 @@
       <c r="P12" s="18">
         <v>11.3</v>
       </c>
-      <c r="Q12" s="148"/>
-      <c r="R12" s="147"/>
-      <c r="S12" s="147"/>
-      <c r="T12" s="147"/>
-      <c r="U12" s="147"/>
-      <c r="V12" s="147"/>
-      <c r="W12" s="147"/>
-      <c r="X12" s="147"/>
-      <c r="Y12" s="147"/>
-      <c r="Z12" s="147"/>
-      <c r="AA12" s="147"/>
-      <c r="AB12" s="147"/>
-      <c r="AC12" s="147"/>
-      <c r="AD12" s="147"/>
-      <c r="AE12" s="147"/>
+      <c r="Q12" s="154"/>
+      <c r="R12" s="153"/>
+      <c r="S12" s="153"/>
+      <c r="T12" s="153"/>
+      <c r="U12" s="153"/>
+      <c r="V12" s="153"/>
+      <c r="W12" s="153"/>
+      <c r="X12" s="153"/>
+      <c r="Y12" s="153"/>
+      <c r="Z12" s="153"/>
+      <c r="AA12" s="153"/>
+      <c r="AB12" s="153"/>
+      <c r="AC12" s="153"/>
+      <c r="AD12" s="153"/>
+      <c r="AE12" s="153"/>
       <c r="AF12" s="39" t="s">
         <v>196</v>
       </c>
@@ -5301,7 +5301,7 @@
       <c r="K13" s="20">
         <v>14910.55</v>
       </c>
-      <c r="L13" s="148"/>
+      <c r="L13" s="154"/>
       <c r="M13" s="20">
         <v>18350.29</v>
       </c>
@@ -5314,21 +5314,21 @@
       <c r="P13" s="20">
         <v>44286.881000000001</v>
       </c>
-      <c r="Q13" s="148"/>
-      <c r="R13" s="147"/>
-      <c r="S13" s="147"/>
-      <c r="T13" s="147"/>
-      <c r="U13" s="147"/>
-      <c r="V13" s="147"/>
-      <c r="W13" s="147"/>
-      <c r="X13" s="147"/>
-      <c r="Y13" s="147"/>
-      <c r="Z13" s="147"/>
-      <c r="AA13" s="147"/>
-      <c r="AB13" s="147"/>
-      <c r="AC13" s="147"/>
-      <c r="AD13" s="147"/>
-      <c r="AE13" s="147"/>
+      <c r="Q13" s="154"/>
+      <c r="R13" s="153"/>
+      <c r="S13" s="153"/>
+      <c r="T13" s="153"/>
+      <c r="U13" s="153"/>
+      <c r="V13" s="153"/>
+      <c r="W13" s="153"/>
+      <c r="X13" s="153"/>
+      <c r="Y13" s="153"/>
+      <c r="Z13" s="153"/>
+      <c r="AA13" s="153"/>
+      <c r="AB13" s="153"/>
+      <c r="AC13" s="153"/>
+      <c r="AD13" s="153"/>
+      <c r="AE13" s="153"/>
       <c r="AF13" s="41" t="s">
         <v>201</v>
       </c>
@@ -5381,20 +5381,20 @@
       <c r="O14" s="20"/>
       <c r="P14" s="20"/>
       <c r="Q14" s="20"/>
-      <c r="R14" s="147"/>
-      <c r="S14" s="147"/>
-      <c r="T14" s="147"/>
-      <c r="U14" s="147"/>
-      <c r="V14" s="147"/>
-      <c r="W14" s="147"/>
-      <c r="X14" s="147"/>
-      <c r="Y14" s="147"/>
-      <c r="Z14" s="147"/>
-      <c r="AA14" s="147"/>
-      <c r="AB14" s="147"/>
-      <c r="AC14" s="147"/>
-      <c r="AD14" s="147"/>
-      <c r="AE14" s="147"/>
+      <c r="R14" s="153"/>
+      <c r="S14" s="153"/>
+      <c r="T14" s="153"/>
+      <c r="U14" s="153"/>
+      <c r="V14" s="153"/>
+      <c r="W14" s="153"/>
+      <c r="X14" s="153"/>
+      <c r="Y14" s="153"/>
+      <c r="Z14" s="153"/>
+      <c r="AA14" s="153"/>
+      <c r="AB14" s="153"/>
+      <c r="AC14" s="153"/>
+      <c r="AD14" s="153"/>
+      <c r="AE14" s="153"/>
       <c r="AF14" s="41" t="s">
         <v>210</v>
       </c>
@@ -5476,20 +5476,20 @@
         <v>98</v>
       </c>
       <c r="Q15" s="31"/>
-      <c r="R15" s="147"/>
-      <c r="S15" s="147"/>
-      <c r="T15" s="147"/>
-      <c r="U15" s="147"/>
-      <c r="V15" s="147"/>
-      <c r="W15" s="147"/>
-      <c r="X15" s="147"/>
-      <c r="Y15" s="147"/>
-      <c r="Z15" s="147"/>
-      <c r="AA15" s="147"/>
-      <c r="AB15" s="147"/>
-      <c r="AC15" s="147"/>
-      <c r="AD15" s="147"/>
-      <c r="AE15" s="147"/>
+      <c r="R15" s="153"/>
+      <c r="S15" s="153"/>
+      <c r="T15" s="153"/>
+      <c r="U15" s="153"/>
+      <c r="V15" s="153"/>
+      <c r="W15" s="153"/>
+      <c r="X15" s="153"/>
+      <c r="Y15" s="153"/>
+      <c r="Z15" s="153"/>
+      <c r="AA15" s="153"/>
+      <c r="AB15" s="153"/>
+      <c r="AC15" s="153"/>
+      <c r="AD15" s="153"/>
+      <c r="AE15" s="153"/>
       <c r="AF15" s="41" t="s">
         <v>211</v>
       </c>
@@ -5567,20 +5567,20 @@
         <v>0.5</v>
       </c>
       <c r="Q16" s="68"/>
-      <c r="R16" s="147"/>
-      <c r="S16" s="147"/>
-      <c r="T16" s="147"/>
-      <c r="U16" s="147"/>
-      <c r="V16" s="147"/>
-      <c r="W16" s="147"/>
-      <c r="X16" s="147"/>
-      <c r="Y16" s="147"/>
-      <c r="Z16" s="147"/>
-      <c r="AA16" s="147"/>
-      <c r="AB16" s="147"/>
-      <c r="AC16" s="147"/>
-      <c r="AD16" s="147"/>
-      <c r="AE16" s="147"/>
+      <c r="R16" s="153"/>
+      <c r="S16" s="153"/>
+      <c r="T16" s="153"/>
+      <c r="U16" s="153"/>
+      <c r="V16" s="153"/>
+      <c r="W16" s="153"/>
+      <c r="X16" s="153"/>
+      <c r="Y16" s="153"/>
+      <c r="Z16" s="153"/>
+      <c r="AA16" s="153"/>
+      <c r="AB16" s="153"/>
+      <c r="AC16" s="153"/>
+      <c r="AD16" s="153"/>
+      <c r="AE16" s="153"/>
       <c r="AF16" s="64"/>
       <c r="AG16" s="64"/>
       <c r="AH16" s="64"/>
@@ -5636,20 +5636,20 @@
         <v>2.7</v>
       </c>
       <c r="Q17" s="20"/>
-      <c r="R17" s="147"/>
-      <c r="S17" s="147"/>
-      <c r="T17" s="147"/>
-      <c r="U17" s="147"/>
-      <c r="V17" s="147"/>
-      <c r="W17" s="147"/>
-      <c r="X17" s="147"/>
-      <c r="Y17" s="147"/>
-      <c r="Z17" s="147"/>
-      <c r="AA17" s="147"/>
-      <c r="AB17" s="147"/>
-      <c r="AC17" s="147"/>
-      <c r="AD17" s="147"/>
-      <c r="AE17" s="147"/>
+      <c r="R17" s="153"/>
+      <c r="S17" s="153"/>
+      <c r="T17" s="153"/>
+      <c r="U17" s="153"/>
+      <c r="V17" s="153"/>
+      <c r="W17" s="153"/>
+      <c r="X17" s="153"/>
+      <c r="Y17" s="153"/>
+      <c r="Z17" s="153"/>
+      <c r="AA17" s="153"/>
+      <c r="AB17" s="153"/>
+      <c r="AC17" s="153"/>
+      <c r="AD17" s="153"/>
+      <c r="AE17" s="153"/>
       <c r="AF17" s="41" t="s">
         <v>212</v>
       </c>
@@ -5729,20 +5729,20 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="Q18" s="20"/>
-      <c r="R18" s="147"/>
-      <c r="S18" s="147"/>
-      <c r="T18" s="147"/>
-      <c r="U18" s="147"/>
-      <c r="V18" s="147"/>
-      <c r="W18" s="147"/>
-      <c r="X18" s="147"/>
-      <c r="Y18" s="147"/>
-      <c r="Z18" s="147"/>
-      <c r="AA18" s="147"/>
-      <c r="AB18" s="147"/>
-      <c r="AC18" s="147"/>
-      <c r="AD18" s="147"/>
-      <c r="AE18" s="147"/>
+      <c r="R18" s="153"/>
+      <c r="S18" s="153"/>
+      <c r="T18" s="153"/>
+      <c r="U18" s="153"/>
+      <c r="V18" s="153"/>
+      <c r="W18" s="153"/>
+      <c r="X18" s="153"/>
+      <c r="Y18" s="153"/>
+      <c r="Z18" s="153"/>
+      <c r="AA18" s="153"/>
+      <c r="AB18" s="153"/>
+      <c r="AC18" s="153"/>
+      <c r="AD18" s="153"/>
+      <c r="AE18" s="153"/>
       <c r="AF18" s="41" t="s">
         <v>213</v>
       </c>
@@ -5822,20 +5822,20 @@
         <v>1.49</v>
       </c>
       <c r="Q19" s="20"/>
-      <c r="R19" s="147"/>
-      <c r="S19" s="147"/>
-      <c r="T19" s="147"/>
-      <c r="U19" s="147"/>
-      <c r="V19" s="147"/>
-      <c r="W19" s="147"/>
-      <c r="X19" s="147"/>
-      <c r="Y19" s="147"/>
-      <c r="Z19" s="147"/>
-      <c r="AA19" s="147"/>
-      <c r="AB19" s="147"/>
-      <c r="AC19" s="147"/>
-      <c r="AD19" s="147"/>
-      <c r="AE19" s="147"/>
+      <c r="R19" s="153"/>
+      <c r="S19" s="153"/>
+      <c r="T19" s="153"/>
+      <c r="U19" s="153"/>
+      <c r="V19" s="153"/>
+      <c r="W19" s="153"/>
+      <c r="X19" s="153"/>
+      <c r="Y19" s="153"/>
+      <c r="Z19" s="153"/>
+      <c r="AA19" s="153"/>
+      <c r="AB19" s="153"/>
+      <c r="AC19" s="153"/>
+      <c r="AD19" s="153"/>
+      <c r="AE19" s="153"/>
       <c r="AF19" s="41" t="s">
         <v>215</v>
       </c>
@@ -5909,20 +5909,20 @@
         <v>1.6</v>
       </c>
       <c r="Q20" s="20"/>
-      <c r="R20" s="147"/>
-      <c r="S20" s="147"/>
-      <c r="T20" s="147"/>
-      <c r="U20" s="147"/>
-      <c r="V20" s="147"/>
-      <c r="W20" s="147"/>
-      <c r="X20" s="147"/>
-      <c r="Y20" s="147"/>
-      <c r="Z20" s="147"/>
-      <c r="AA20" s="147"/>
-      <c r="AB20" s="147"/>
-      <c r="AC20" s="147"/>
-      <c r="AD20" s="147"/>
-      <c r="AE20" s="147"/>
+      <c r="R20" s="153"/>
+      <c r="S20" s="153"/>
+      <c r="T20" s="153"/>
+      <c r="U20" s="153"/>
+      <c r="V20" s="153"/>
+      <c r="W20" s="153"/>
+      <c r="X20" s="153"/>
+      <c r="Y20" s="153"/>
+      <c r="Z20" s="153"/>
+      <c r="AA20" s="153"/>
+      <c r="AB20" s="153"/>
+      <c r="AC20" s="153"/>
+      <c r="AD20" s="153"/>
+      <c r="AE20" s="153"/>
       <c r="AF20" s="41" t="s">
         <v>218</v>
       </c>
@@ -5996,20 +5996,20 @@
         <v>1.7</v>
       </c>
       <c r="Q21" s="20"/>
-      <c r="R21" s="147"/>
-      <c r="S21" s="147"/>
-      <c r="T21" s="147"/>
-      <c r="U21" s="147"/>
-      <c r="V21" s="147"/>
-      <c r="W21" s="147"/>
-      <c r="X21" s="147"/>
-      <c r="Y21" s="147"/>
-      <c r="Z21" s="147"/>
-      <c r="AA21" s="147"/>
-      <c r="AB21" s="147"/>
-      <c r="AC21" s="147"/>
-      <c r="AD21" s="147"/>
-      <c r="AE21" s="147"/>
+      <c r="R21" s="153"/>
+      <c r="S21" s="153"/>
+      <c r="T21" s="153"/>
+      <c r="U21" s="153"/>
+      <c r="V21" s="153"/>
+      <c r="W21" s="153"/>
+      <c r="X21" s="153"/>
+      <c r="Y21" s="153"/>
+      <c r="Z21" s="153"/>
+      <c r="AA21" s="153"/>
+      <c r="AB21" s="153"/>
+      <c r="AC21" s="153"/>
+      <c r="AD21" s="153"/>
+      <c r="AE21" s="153"/>
       <c r="AF21" s="41" t="s">
         <v>223</v>
       </c>
@@ -6083,20 +6083,20 @@
         <v>7.6</v>
       </c>
       <c r="Q22" s="20"/>
-      <c r="R22" s="147"/>
-      <c r="S22" s="147"/>
-      <c r="T22" s="147"/>
-      <c r="U22" s="147"/>
-      <c r="V22" s="147"/>
-      <c r="W22" s="147"/>
-      <c r="X22" s="147"/>
-      <c r="Y22" s="147"/>
-      <c r="Z22" s="147"/>
-      <c r="AA22" s="147"/>
-      <c r="AB22" s="147"/>
-      <c r="AC22" s="147"/>
-      <c r="AD22" s="147"/>
-      <c r="AE22" s="147"/>
+      <c r="R22" s="153"/>
+      <c r="S22" s="153"/>
+      <c r="T22" s="153"/>
+      <c r="U22" s="153"/>
+      <c r="V22" s="153"/>
+      <c r="W22" s="153"/>
+      <c r="X22" s="153"/>
+      <c r="Y22" s="153"/>
+      <c r="Z22" s="153"/>
+      <c r="AA22" s="153"/>
+      <c r="AB22" s="153"/>
+      <c r="AC22" s="153"/>
+      <c r="AD22" s="153"/>
+      <c r="AE22" s="153"/>
       <c r="AF22" s="41" t="s">
         <v>298</v>
       </c>
@@ -6170,20 +6170,20 @@
         <v>3.32</v>
       </c>
       <c r="Q23" s="20"/>
-      <c r="R23" s="147"/>
-      <c r="S23" s="147"/>
-      <c r="T23" s="147"/>
-      <c r="U23" s="147"/>
-      <c r="V23" s="147"/>
-      <c r="W23" s="147"/>
-      <c r="X23" s="147"/>
-      <c r="Y23" s="147"/>
-      <c r="Z23" s="147"/>
-      <c r="AA23" s="147"/>
-      <c r="AB23" s="147"/>
-      <c r="AC23" s="147"/>
-      <c r="AD23" s="147"/>
-      <c r="AE23" s="147"/>
+      <c r="R23" s="153"/>
+      <c r="S23" s="153"/>
+      <c r="T23" s="153"/>
+      <c r="U23" s="153"/>
+      <c r="V23" s="153"/>
+      <c r="W23" s="153"/>
+      <c r="X23" s="153"/>
+      <c r="Y23" s="153"/>
+      <c r="Z23" s="153"/>
+      <c r="AA23" s="153"/>
+      <c r="AB23" s="153"/>
+      <c r="AC23" s="153"/>
+      <c r="AD23" s="153"/>
+      <c r="AE23" s="153"/>
       <c r="AF23" s="43" t="s">
         <v>226</v>
       </c>
@@ -6272,20 +6272,20 @@
         <v>22</v>
       </c>
       <c r="Q24" s="20"/>
-      <c r="R24" s="147"/>
-      <c r="S24" s="147"/>
-      <c r="T24" s="147"/>
-      <c r="U24" s="147"/>
-      <c r="V24" s="147"/>
-      <c r="W24" s="147"/>
-      <c r="X24" s="147"/>
-      <c r="Y24" s="147"/>
-      <c r="Z24" s="147"/>
-      <c r="AA24" s="147"/>
-      <c r="AB24" s="147"/>
-      <c r="AC24" s="147"/>
-      <c r="AD24" s="147"/>
-      <c r="AE24" s="147"/>
+      <c r="R24" s="153"/>
+      <c r="S24" s="153"/>
+      <c r="T24" s="153"/>
+      <c r="U24" s="153"/>
+      <c r="V24" s="153"/>
+      <c r="W24" s="153"/>
+      <c r="X24" s="153"/>
+      <c r="Y24" s="153"/>
+      <c r="Z24" s="153"/>
+      <c r="AA24" s="153"/>
+      <c r="AB24" s="153"/>
+      <c r="AC24" s="153"/>
+      <c r="AD24" s="153"/>
+      <c r="AE24" s="153"/>
       <c r="AF24" s="43" t="s">
         <v>229</v>
       </c>
@@ -6384,20 +6384,20 @@
         <v>100</v>
       </c>
       <c r="Q25" s="20"/>
-      <c r="R25" s="147"/>
-      <c r="S25" s="147"/>
-      <c r="T25" s="147"/>
-      <c r="U25" s="147"/>
-      <c r="V25" s="147"/>
-      <c r="W25" s="147"/>
-      <c r="X25" s="147"/>
-      <c r="Y25" s="147"/>
-      <c r="Z25" s="147"/>
-      <c r="AA25" s="147"/>
-      <c r="AB25" s="147"/>
-      <c r="AC25" s="147"/>
-      <c r="AD25" s="147"/>
-      <c r="AE25" s="147"/>
+      <c r="R25" s="153"/>
+      <c r="S25" s="153"/>
+      <c r="T25" s="153"/>
+      <c r="U25" s="153"/>
+      <c r="V25" s="153"/>
+      <c r="W25" s="153"/>
+      <c r="X25" s="153"/>
+      <c r="Y25" s="153"/>
+      <c r="Z25" s="153"/>
+      <c r="AA25" s="153"/>
+      <c r="AB25" s="153"/>
+      <c r="AC25" s="153"/>
+      <c r="AD25" s="153"/>
+      <c r="AE25" s="153"/>
       <c r="AF25" s="43" t="s">
         <v>230</v>
       </c>
@@ -6428,19 +6428,19 @@
       <c r="AO25" s="44">
         <v>120</v>
       </c>
-      <c r="AP25" s="141" t="s">
+      <c r="AP25" s="157" t="s">
         <v>340</v>
       </c>
       <c r="AQ25" s="36" t="s">
         <v>341</v>
       </c>
-      <c r="AR25" s="141" t="s">
+      <c r="AR25" s="157" t="s">
         <v>343</v>
       </c>
-      <c r="AS25" s="141" t="s">
+      <c r="AS25" s="157" t="s">
         <v>344</v>
       </c>
-      <c r="AT25" s="141" t="s">
+      <c r="AT25" s="157" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6497,20 +6497,20 @@
         <v>4.3401143380000002</v>
       </c>
       <c r="Q26" s="20"/>
-      <c r="R26" s="147"/>
-      <c r="S26" s="147"/>
-      <c r="T26" s="147"/>
-      <c r="U26" s="147"/>
-      <c r="V26" s="147"/>
-      <c r="W26" s="147"/>
-      <c r="X26" s="147"/>
-      <c r="Y26" s="147"/>
-      <c r="Z26" s="147"/>
-      <c r="AA26" s="147"/>
-      <c r="AB26" s="147"/>
-      <c r="AC26" s="147"/>
-      <c r="AD26" s="147"/>
-      <c r="AE26" s="147"/>
+      <c r="R26" s="153"/>
+      <c r="S26" s="153"/>
+      <c r="T26" s="153"/>
+      <c r="U26" s="153"/>
+      <c r="V26" s="153"/>
+      <c r="W26" s="153"/>
+      <c r="X26" s="153"/>
+      <c r="Y26" s="153"/>
+      <c r="Z26" s="153"/>
+      <c r="AA26" s="153"/>
+      <c r="AB26" s="153"/>
+      <c r="AC26" s="153"/>
+      <c r="AD26" s="153"/>
+      <c r="AE26" s="153"/>
       <c r="AF26" s="43" t="s">
         <v>231</v>
       </c>
@@ -6541,13 +6541,13 @@
       <c r="AO26" s="44">
         <v>120</v>
       </c>
-      <c r="AP26" s="141"/>
+      <c r="AP26" s="157"/>
       <c r="AQ26" s="36" t="s">
         <v>342</v>
       </c>
-      <c r="AR26" s="141"/>
-      <c r="AS26" s="141"/>
-      <c r="AT26" s="141"/>
+      <c r="AR26" s="157"/>
+      <c r="AS26" s="157"/>
+      <c r="AT26" s="157"/>
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="58" t="str">
@@ -6602,20 +6602,20 @@
         <v>32.984868968800001</v>
       </c>
       <c r="Q27" s="20"/>
-      <c r="R27" s="147"/>
-      <c r="S27" s="147"/>
-      <c r="T27" s="147"/>
-      <c r="U27" s="147"/>
-      <c r="V27" s="147"/>
-      <c r="W27" s="147"/>
-      <c r="X27" s="147"/>
-      <c r="Y27" s="147"/>
-      <c r="Z27" s="147"/>
-      <c r="AA27" s="147"/>
-      <c r="AB27" s="147"/>
-      <c r="AC27" s="147"/>
-      <c r="AD27" s="147"/>
-      <c r="AE27" s="147"/>
+      <c r="R27" s="153"/>
+      <c r="S27" s="153"/>
+      <c r="T27" s="153"/>
+      <c r="U27" s="153"/>
+      <c r="V27" s="153"/>
+      <c r="W27" s="153"/>
+      <c r="X27" s="153"/>
+      <c r="Y27" s="153"/>
+      <c r="Z27" s="153"/>
+      <c r="AA27" s="153"/>
+      <c r="AB27" s="153"/>
+      <c r="AC27" s="153"/>
+      <c r="AD27" s="153"/>
+      <c r="AE27" s="153"/>
       <c r="AF27" s="43" t="s">
         <v>232</v>
       </c>
@@ -6705,20 +6705,20 @@
         <v>450</v>
       </c>
       <c r="Q28" s="20"/>
-      <c r="R28" s="147"/>
-      <c r="S28" s="147"/>
-      <c r="T28" s="147"/>
-      <c r="U28" s="147"/>
-      <c r="V28" s="147"/>
-      <c r="W28" s="147"/>
-      <c r="X28" s="147"/>
-      <c r="Y28" s="147"/>
-      <c r="Z28" s="147"/>
-      <c r="AA28" s="147"/>
-      <c r="AB28" s="147"/>
-      <c r="AC28" s="147"/>
-      <c r="AD28" s="147"/>
-      <c r="AE28" s="147"/>
+      <c r="R28" s="153"/>
+      <c r="S28" s="153"/>
+      <c r="T28" s="153"/>
+      <c r="U28" s="153"/>
+      <c r="V28" s="153"/>
+      <c r="W28" s="153"/>
+      <c r="X28" s="153"/>
+      <c r="Y28" s="153"/>
+      <c r="Z28" s="153"/>
+      <c r="AA28" s="153"/>
+      <c r="AB28" s="153"/>
+      <c r="AC28" s="153"/>
+      <c r="AD28" s="153"/>
+      <c r="AE28" s="153"/>
       <c r="AF28" s="43" t="s">
         <v>237</v>
       </c>
@@ -6805,20 +6805,20 @@
         <v>100</v>
       </c>
       <c r="Q29" s="31"/>
-      <c r="R29" s="147"/>
-      <c r="S29" s="147"/>
-      <c r="T29" s="147"/>
-      <c r="U29" s="147"/>
-      <c r="V29" s="147"/>
-      <c r="W29" s="147"/>
-      <c r="X29" s="147"/>
-      <c r="Y29" s="147"/>
-      <c r="Z29" s="147"/>
-      <c r="AA29" s="147"/>
-      <c r="AB29" s="147"/>
-      <c r="AC29" s="147"/>
-      <c r="AD29" s="147"/>
-      <c r="AE29" s="147"/>
+      <c r="R29" s="153"/>
+      <c r="S29" s="153"/>
+      <c r="T29" s="153"/>
+      <c r="U29" s="153"/>
+      <c r="V29" s="153"/>
+      <c r="W29" s="153"/>
+      <c r="X29" s="153"/>
+      <c r="Y29" s="153"/>
+      <c r="Z29" s="153"/>
+      <c r="AA29" s="153"/>
+      <c r="AB29" s="153"/>
+      <c r="AC29" s="153"/>
+      <c r="AD29" s="153"/>
+      <c r="AE29" s="153"/>
       <c r="AF29" s="45" t="s">
         <v>238</v>
       </c>
@@ -6907,20 +6907,20 @@
         <v>5</v>
       </c>
       <c r="Q30" s="20"/>
-      <c r="R30" s="147"/>
-      <c r="S30" s="147"/>
-      <c r="T30" s="147"/>
-      <c r="U30" s="147"/>
-      <c r="V30" s="147"/>
-      <c r="W30" s="147"/>
-      <c r="X30" s="147"/>
-      <c r="Y30" s="147"/>
-      <c r="Z30" s="147"/>
-      <c r="AA30" s="147"/>
-      <c r="AB30" s="147"/>
-      <c r="AC30" s="147"/>
-      <c r="AD30" s="147"/>
-      <c r="AE30" s="147"/>
+      <c r="R30" s="153"/>
+      <c r="S30" s="153"/>
+      <c r="T30" s="153"/>
+      <c r="U30" s="153"/>
+      <c r="V30" s="153"/>
+      <c r="W30" s="153"/>
+      <c r="X30" s="153"/>
+      <c r="Y30" s="153"/>
+      <c r="Z30" s="153"/>
+      <c r="AA30" s="153"/>
+      <c r="AB30" s="153"/>
+      <c r="AC30" s="153"/>
+      <c r="AD30" s="153"/>
+      <c r="AE30" s="153"/>
       <c r="AF30" s="45" t="s">
         <v>242</v>
       </c>
@@ -7009,20 +7009,20 @@
         <v>0.2</v>
       </c>
       <c r="Q31" s="20"/>
-      <c r="R31" s="147"/>
-      <c r="S31" s="147"/>
-      <c r="T31" s="147"/>
-      <c r="U31" s="147"/>
-      <c r="V31" s="147"/>
-      <c r="W31" s="147"/>
-      <c r="X31" s="147"/>
-      <c r="Y31" s="147"/>
-      <c r="Z31" s="147"/>
-      <c r="AA31" s="147"/>
-      <c r="AB31" s="147"/>
-      <c r="AC31" s="147"/>
-      <c r="AD31" s="147"/>
-      <c r="AE31" s="147"/>
+      <c r="R31" s="153"/>
+      <c r="S31" s="153"/>
+      <c r="T31" s="153"/>
+      <c r="U31" s="153"/>
+      <c r="V31" s="153"/>
+      <c r="W31" s="153"/>
+      <c r="X31" s="153"/>
+      <c r="Y31" s="153"/>
+      <c r="Z31" s="153"/>
+      <c r="AA31" s="153"/>
+      <c r="AB31" s="153"/>
+      <c r="AC31" s="153"/>
+      <c r="AD31" s="153"/>
+      <c r="AE31" s="153"/>
       <c r="AF31" s="45" t="s">
         <v>243</v>
       </c>
@@ -7109,20 +7109,20 @@
         <v>1.08</v>
       </c>
       <c r="Q32" s="20"/>
-      <c r="R32" s="147"/>
-      <c r="S32" s="147"/>
-      <c r="T32" s="147"/>
-      <c r="U32" s="147"/>
-      <c r="V32" s="147"/>
-      <c r="W32" s="147"/>
-      <c r="X32" s="147"/>
-      <c r="Y32" s="147"/>
-      <c r="Z32" s="147"/>
-      <c r="AA32" s="147"/>
-      <c r="AB32" s="147"/>
-      <c r="AC32" s="147"/>
-      <c r="AD32" s="147"/>
-      <c r="AE32" s="147"/>
+      <c r="R32" s="153"/>
+      <c r="S32" s="153"/>
+      <c r="T32" s="153"/>
+      <c r="U32" s="153"/>
+      <c r="V32" s="153"/>
+      <c r="W32" s="153"/>
+      <c r="X32" s="153"/>
+      <c r="Y32" s="153"/>
+      <c r="Z32" s="153"/>
+      <c r="AA32" s="153"/>
+      <c r="AB32" s="153"/>
+      <c r="AC32" s="153"/>
+      <c r="AD32" s="153"/>
+      <c r="AE32" s="153"/>
       <c r="AF32" s="45" t="s">
         <v>246</v>
       </c>
@@ -7220,20 +7220,20 @@
         <v>8.8573762000000014E-2</v>
       </c>
       <c r="Q33" s="20"/>
-      <c r="R33" s="147"/>
-      <c r="S33" s="147"/>
-      <c r="T33" s="147"/>
-      <c r="U33" s="147"/>
-      <c r="V33" s="147"/>
-      <c r="W33" s="147"/>
-      <c r="X33" s="147"/>
-      <c r="Y33" s="147"/>
-      <c r="Z33" s="147"/>
-      <c r="AA33" s="147"/>
-      <c r="AB33" s="147"/>
-      <c r="AC33" s="147"/>
-      <c r="AD33" s="147"/>
-      <c r="AE33" s="147"/>
+      <c r="R33" s="153"/>
+      <c r="S33" s="153"/>
+      <c r="T33" s="153"/>
+      <c r="U33" s="153"/>
+      <c r="V33" s="153"/>
+      <c r="W33" s="153"/>
+      <c r="X33" s="153"/>
+      <c r="Y33" s="153"/>
+      <c r="Z33" s="153"/>
+      <c r="AA33" s="153"/>
+      <c r="AB33" s="153"/>
+      <c r="AC33" s="153"/>
+      <c r="AD33" s="153"/>
+      <c r="AE33" s="153"/>
       <c r="AF33" s="45" t="s">
         <v>249</v>
       </c>
@@ -7323,20 +7323,20 @@
         <v>9.5659662960000016E-2</v>
       </c>
       <c r="Q34" s="20"/>
-      <c r="R34" s="147"/>
-      <c r="S34" s="147"/>
-      <c r="T34" s="147"/>
-      <c r="U34" s="147"/>
-      <c r="V34" s="147"/>
-      <c r="W34" s="147"/>
-      <c r="X34" s="147"/>
-      <c r="Y34" s="147"/>
-      <c r="Z34" s="147"/>
-      <c r="AA34" s="147"/>
-      <c r="AB34" s="147"/>
-      <c r="AC34" s="147"/>
-      <c r="AD34" s="147"/>
-      <c r="AE34" s="147"/>
+      <c r="R34" s="153"/>
+      <c r="S34" s="153"/>
+      <c r="T34" s="153"/>
+      <c r="U34" s="153"/>
+      <c r="V34" s="153"/>
+      <c r="W34" s="153"/>
+      <c r="X34" s="153"/>
+      <c r="Y34" s="153"/>
+      <c r="Z34" s="153"/>
+      <c r="AA34" s="153"/>
+      <c r="AB34" s="153"/>
+      <c r="AC34" s="153"/>
+      <c r="AD34" s="153"/>
+      <c r="AE34" s="153"/>
       <c r="AF34" s="47" t="s">
         <v>252</v>
       </c>
@@ -7441,11 +7441,11 @@
         <v>90</v>
       </c>
       <c r="B36" s="13"/>
-      <c r="C36" s="142" t="s">
+      <c r="C36" s="151" t="s">
         <v>87</v>
       </c>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
+      <c r="D36" s="151"/>
+      <c r="E36" s="151"/>
       <c r="F36" s="13" t="s">
         <v>65</v>
       </c>
@@ -7518,79 +7518,79 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="153" t="s">
+    <row r="37" spans="1:46" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="145" t="s">
         <v>11</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="145" t="s">
         <v>41</v>
       </c>
-      <c r="F37" s="153" t="s">
+      <c r="F37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="G37" s="153" t="s">
+      <c r="G37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="H37" s="153" t="s">
+      <c r="H37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="I37" s="153" t="s">
+      <c r="I37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="J37" s="153" t="s">
+      <c r="J37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="K37" s="153" t="s">
+      <c r="K37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="M37" s="153" t="s">
+      <c r="M37" s="145" t="s">
         <v>44</v>
       </c>
-      <c r="N37" s="153" t="s">
+      <c r="N37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="O37" s="153" t="s">
+      <c r="O37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="P37" s="153" t="s">
+      <c r="P37" s="145" t="s">
         <v>42</v>
       </c>
-      <c r="Q37" s="153" t="s">
+      <c r="Q37" s="145" t="s">
         <v>43</v>
       </c>
-      <c r="AF37" s="154" t="s">
+      <c r="AF37" s="146" t="s">
         <v>273</v>
       </c>
-      <c r="AG37" s="154" t="s">
+      <c r="AG37" s="146" t="s">
         <v>146</v>
       </c>
-      <c r="AH37" s="154" t="s">
+      <c r="AH37" s="146" t="s">
         <v>147</v>
       </c>
-      <c r="AI37" s="154" t="s">
+      <c r="AI37" s="146" t="s">
         <v>274</v>
       </c>
-      <c r="AJ37" s="154" t="s">
+      <c r="AJ37" s="146" t="s">
         <v>275</v>
       </c>
-      <c r="AK37" s="154" t="s">
+      <c r="AK37" s="146" t="s">
         <v>257</v>
       </c>
-      <c r="AL37" s="154" t="s">
+      <c r="AL37" s="146" t="s">
         <v>258</v>
       </c>
-      <c r="AM37" s="154" t="s">
+      <c r="AM37" s="146" t="s">
         <v>152</v>
       </c>
-      <c r="AN37" s="154" t="s">
+      <c r="AN37" s="146" t="s">
         <v>153</v>
       </c>
-      <c r="AO37" s="154">
+      <c r="AO37" s="146">
         <v>180</v>
       </c>
     </row>
     <row r="38" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="150" t="s">
+      <c r="A38" s="142" t="s">
         <v>70</v>
       </c>
       <c r="C38" s="15" t="s">
@@ -7605,12 +7605,12 @@
       <c r="H38" s="16">
         <v>30</v>
       </c>
-      <c r="I38" s="151"/>
+      <c r="I38" s="143"/>
       <c r="J38" s="16">
         <v>40</v>
       </c>
-      <c r="K38" s="151"/>
-      <c r="L38" s="151"/>
+      <c r="K38" s="143"/>
+      <c r="L38" s="143"/>
       <c r="M38" s="16">
         <v>70</v>
       </c>
@@ -8084,122 +8084,122 @@
       <c r="A46" s="138" t="s">
         <v>379</v>
       </c>
-      <c r="B46" s="152" t="s">
+      <c r="B46" s="144" t="s">
         <v>386</v>
       </c>
       <c r="C46" s="138" t="s">
         <v>380</v>
       </c>
-      <c r="F46" s="153" t="s">
+      <c r="F46" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="G46" s="153" t="s">
+      <c r="G46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="H46" s="153" t="s">
+      <c r="H46" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="I46" s="153" t="s">
+      <c r="I46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="J46" s="153" t="s">
+      <c r="J46" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="K46" s="153" t="s">
+      <c r="K46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="L46" s="153"/>
-      <c r="M46" s="153" t="s">
+      <c r="L46" s="145"/>
+      <c r="M46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="N46" s="153" t="s">
+      <c r="N46" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="O46" s="153" t="s">
+      <c r="O46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="P46" s="153" t="s">
+      <c r="P46" s="145" t="s">
         <v>382</v>
       </c>
-      <c r="Q46" s="153" t="s">
+      <c r="Q46" s="145" t="s">
         <v>381</v>
       </c>
-      <c r="AF46" s="154"/>
-      <c r="AG46" s="154"/>
-      <c r="AH46" s="154"/>
-      <c r="AI46" s="154"/>
-      <c r="AJ46" s="154"/>
-      <c r="AK46" s="154"/>
-      <c r="AL46" s="154"/>
-      <c r="AM46" s="154"/>
-      <c r="AN46" s="154"/>
-      <c r="AO46" s="154"/>
+      <c r="AF46" s="146"/>
+      <c r="AG46" s="146"/>
+      <c r="AH46" s="146"/>
+      <c r="AI46" s="146"/>
+      <c r="AJ46" s="146"/>
+      <c r="AK46" s="146"/>
+      <c r="AL46" s="146"/>
+      <c r="AM46" s="146"/>
+      <c r="AN46" s="146"/>
+      <c r="AO46" s="146"/>
     </row>
     <row r="47" spans="1:46" s="138" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A47" s="138" t="s">
         <v>131</v>
       </c>
-      <c r="B47" s="155" t="s">
+      <c r="B47" s="147" t="s">
         <v>385</v>
       </c>
       <c r="C47" s="138" t="s">
         <v>142</v>
       </c>
-      <c r="F47" s="153" t="str">
+      <c r="F47" s="145" t="str">
         <f>$AM$32</f>
         <v>40...43</v>
       </c>
-      <c r="G47" s="153" t="str">
+      <c r="G47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="H47" s="153" t="str">
+      <c r="H47" s="145" t="str">
         <f>$AM$32</f>
         <v>40...43</v>
       </c>
-      <c r="I47" s="153" t="str">
+      <c r="I47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="J47" s="153" t="str">
+      <c r="J47" s="145" t="str">
         <f>$AM$32</f>
         <v>40...43</v>
       </c>
-      <c r="K47" s="153" t="str">
+      <c r="K47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="L47" s="153"/>
-      <c r="M47" s="153" t="str">
+      <c r="L47" s="145"/>
+      <c r="M47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="N47" s="153" t="str">
+      <c r="N47" s="145" t="str">
         <f>$AM$32</f>
         <v>40...43</v>
       </c>
-      <c r="O47" s="153" t="str">
+      <c r="O47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="P47" s="153" t="str">
+      <c r="P47" s="145" t="str">
         <f>$AM$32</f>
         <v>40...43</v>
       </c>
-      <c r="Q47" s="153" t="str">
+      <c r="Q47" s="145" t="str">
         <f>$AM$22</f>
         <v>49...53</v>
       </c>
-      <c r="AF47" s="154"/>
-      <c r="AG47" s="154"/>
-      <c r="AH47" s="154"/>
-      <c r="AI47" s="154"/>
-      <c r="AJ47" s="154"/>
-      <c r="AK47" s="154"/>
-      <c r="AL47" s="154"/>
-      <c r="AM47" s="154"/>
-      <c r="AN47" s="154"/>
-      <c r="AO47" s="154"/>
+      <c r="AF47" s="146"/>
+      <c r="AG47" s="146"/>
+      <c r="AH47" s="146"/>
+      <c r="AI47" s="146"/>
+      <c r="AJ47" s="146"/>
+      <c r="AK47" s="146"/>
+      <c r="AL47" s="146"/>
+      <c r="AM47" s="146"/>
+      <c r="AN47" s="146"/>
+      <c r="AO47" s="146"/>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
@@ -8637,7 +8637,7 @@
       <c r="Q58" s="105"/>
     </row>
     <row r="59" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A59" s="145" t="s">
+      <c r="A59" s="150" t="s">
         <v>14</v>
       </c>
       <c r="B59" s="3"/>
@@ -8664,7 +8664,7 @@
       </c>
     </row>
     <row r="60" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A60" s="145"/>
+      <c r="A60" s="150"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
         <v>15</v>
@@ -8689,7 +8689,7 @@
       </c>
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A61" s="145"/>
+      <c r="A61" s="150"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
         <v>15</v>
@@ -8714,7 +8714,7 @@
       </c>
     </row>
     <row r="62" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A62" s="145"/>
+      <c r="A62" s="150"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
         <v>15</v>
@@ -8739,7 +8739,7 @@
       </c>
     </row>
     <row r="63" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A63" s="145"/>
+      <c r="A63" s="150"/>
       <c r="B63" s="3"/>
       <c r="C63" t="s">
         <v>15</v>
@@ -8764,7 +8764,7 @@
       </c>
     </row>
     <row r="64" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A64" s="145"/>
+      <c r="A64" s="150"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
         <v>15</v>
@@ -8789,7 +8789,7 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A65" s="145"/>
+      <c r="A65" s="150"/>
       <c r="B65" s="3"/>
       <c r="C65" t="s">
         <v>15</v>
@@ -8814,7 +8814,7 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A66" s="145"/>
+      <c r="A66" s="150"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
         <v>15</v>
@@ -8839,7 +8839,7 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A67" s="145"/>
+      <c r="A67" s="150"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
         <v>15</v>
@@ -8864,7 +8864,7 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A68" s="145"/>
+      <c r="A68" s="150"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
         <v>15</v>
@@ -8889,7 +8889,7 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A69" s="145"/>
+      <c r="A69" s="150"/>
       <c r="B69" s="3"/>
       <c r="C69" t="s">
         <v>15</v>
@@ -8914,7 +8914,7 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A70" s="145"/>
+      <c r="A70" s="150"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
         <v>15</v>
@@ -8939,7 +8939,7 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A71" s="145"/>
+      <c r="A71" s="150"/>
       <c r="B71" s="3"/>
       <c r="C71" t="s">
         <v>15</v>
@@ -8964,7 +8964,7 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A72" s="145"/>
+      <c r="A72" s="150"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
         <v>15</v>
@@ -8989,7 +8989,7 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A73" s="145"/>
+      <c r="A73" s="150"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
         <v>15</v>
@@ -9132,11 +9132,11 @@
         <v>17</v>
       </c>
       <c r="B81" s="25"/>
-      <c r="C81" s="142" t="s">
+      <c r="C81" s="151" t="s">
         <v>88</v>
       </c>
-      <c r="D81" s="142"/>
-      <c r="E81" s="142"/>
+      <c r="D81" s="151"/>
+      <c r="E81" s="151"/>
       <c r="F81" s="13" t="s">
         <v>89</v>
       </c>
@@ -9164,44 +9164,44 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:17" s="153" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="153" t="s">
+    <row r="82" spans="1:17" s="145" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="145" t="s">
         <v>389</v>
       </c>
-      <c r="B82" s="153" t="s">
+      <c r="B82" s="145" t="s">
         <v>469</v>
       </c>
-      <c r="F82" s="153" t="s">
+      <c r="F82" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="G82" s="153" t="s">
+      <c r="G82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="H82" s="153" t="s">
+      <c r="H82" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="I82" s="153" t="s">
+      <c r="I82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="J82" s="153" t="s">
+      <c r="J82" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="K82" s="153" t="s">
+      <c r="K82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="M82" s="153" t="s">
+      <c r="M82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="N82" s="153" t="s">
+      <c r="N82" s="145" t="s">
         <v>81</v>
       </c>
-      <c r="O82" s="153" t="s">
+      <c r="O82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="P82" s="153" t="s">
+      <c r="P82" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="Q82" s="153" t="s">
+      <c r="Q82" s="145" t="s">
         <v>82</v>
       </c>
     </row>
@@ -9504,32 +9504,32 @@
       <c r="C91" s="138" t="s">
         <v>104</v>
       </c>
-      <c r="F91" s="156" t="s">
+      <c r="F91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="G91" s="156" t="s">
+      <c r="G91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="H91" s="156" t="s">
+      <c r="H91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="I91" s="153"/>
-      <c r="J91" s="156" t="s">
+      <c r="I91" s="145"/>
+      <c r="J91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="K91" s="153"/>
-      <c r="L91" s="153"/>
-      <c r="M91" s="156" t="s">
+      <c r="K91" s="145"/>
+      <c r="L91" s="145"/>
+      <c r="M91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="N91" s="156" t="s">
+      <c r="N91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="O91" s="153"/>
-      <c r="P91" s="156" t="s">
+      <c r="O91" s="145"/>
+      <c r="P91" s="148" t="s">
         <v>397</v>
       </c>
-      <c r="Q91" s="153"/>
+      <c r="Q91" s="145"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
@@ -10201,28 +10201,28 @@
       <c r="C109" t="s">
         <v>585</v>
       </c>
-      <c r="F109" s="149" t="s">
+      <c r="F109" s="141" t="s">
         <v>742</v>
       </c>
-      <c r="G109" s="149"/>
-      <c r="H109" s="149" t="s">
+      <c r="G109" s="141"/>
+      <c r="H109" s="141" t="s">
         <v>743</v>
       </c>
-      <c r="I109" s="157"/>
-      <c r="J109" s="149"/>
-      <c r="K109" s="157"/>
-      <c r="L109" s="157"/>
-      <c r="M109" s="149" t="s">
+      <c r="I109" s="149"/>
+      <c r="J109" s="141"/>
+      <c r="K109" s="149"/>
+      <c r="L109" s="149"/>
+      <c r="M109" s="141" t="s">
         <v>744</v>
       </c>
-      <c r="N109" s="149" t="s">
+      <c r="N109" s="141" t="s">
         <v>745</v>
       </c>
-      <c r="O109" s="157"/>
-      <c r="P109" s="149" t="s">
+      <c r="O109" s="149"/>
+      <c r="P109" s="141" t="s">
         <v>746</v>
       </c>
-      <c r="Q109" s="153"/>
+      <c r="Q109" s="145"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
@@ -10273,11 +10273,11 @@
         <v>424</v>
       </c>
       <c r="B111" s="23"/>
-      <c r="C111" s="142" t="s">
+      <c r="C111" s="151" t="s">
         <v>465</v>
       </c>
-      <c r="D111" s="142"/>
-      <c r="E111" s="142"/>
+      <c r="D111" s="151"/>
+      <c r="E111" s="151"/>
       <c r="F111" s="95" t="s">
         <v>464</v>
       </c>
@@ -10786,11 +10786,11 @@
         <v>446</v>
       </c>
       <c r="B124" s="23"/>
-      <c r="C124" s="142" t="s">
+      <c r="C124" s="151" t="s">
         <v>457</v>
       </c>
-      <c r="D124" s="142"/>
-      <c r="E124" s="142"/>
+      <c r="D124" s="151"/>
+      <c r="E124" s="151"/>
       <c r="F124" s="94"/>
       <c r="G124" s="95"/>
       <c r="H124" s="94"/>
@@ -12600,6 +12600,19 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="AP25:AP26"/>
+    <mergeCell ref="AR25:AR26"/>
+    <mergeCell ref="AS25:AS26"/>
+    <mergeCell ref="AT25:AT26"/>
+    <mergeCell ref="C124:E124"/>
+    <mergeCell ref="C111:E111"/>
+    <mergeCell ref="AG1:AH2"/>
+    <mergeCell ref="AI1:AL2"/>
+    <mergeCell ref="AM1:AN2"/>
+    <mergeCell ref="AG3:AH3"/>
+    <mergeCell ref="AI3:AJ3"/>
+    <mergeCell ref="AK3:AL3"/>
+    <mergeCell ref="AM3:AN3"/>
     <mergeCell ref="A59:A73"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C36:E36"/>
@@ -12608,19 +12621,6 @@
     <mergeCell ref="R6:AE34"/>
     <mergeCell ref="L3:L13"/>
     <mergeCell ref="Q3:Q13"/>
-    <mergeCell ref="AG1:AH2"/>
-    <mergeCell ref="AI1:AL2"/>
-    <mergeCell ref="AM1:AN2"/>
-    <mergeCell ref="AG3:AH3"/>
-    <mergeCell ref="AI3:AJ3"/>
-    <mergeCell ref="AK3:AL3"/>
-    <mergeCell ref="AM3:AN3"/>
-    <mergeCell ref="AP25:AP26"/>
-    <mergeCell ref="AR25:AR26"/>
-    <mergeCell ref="AS25:AS26"/>
-    <mergeCell ref="AT25:AT26"/>
-    <mergeCell ref="C124:E124"/>
-    <mergeCell ref="C111:E111"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="AG1" r:id="rId1" tooltip="Remanenz bei Wikipedia" display="http://de.wikipedia.org/wiki/Remanenz" xr:uid="{00000000-0004-0000-0100-000000000000}"/>

--- a/2021_05_05 Technologiedaten Online.xlsx
+++ b/2021_05_05 Technologiedaten Online.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wmolina\Desktop\GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEE4179D-47D7-4056-BB06-FC7FDB208ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFB5C27-F80F-485F-8990-17F88B304CF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Änderungen" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="775">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1288" uniqueCount="776">
   <si>
     <t>Parameter</t>
   </si>
@@ -2465,6 +2465,9 @@
   </si>
   <si>
     <t>therm. Widerstand Wicklung-Blech</t>
+  </si>
+  <si>
+    <t>pro-stk.</t>
   </si>
 </sst>
 </file>
@@ -3273,8 +3276,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="24406411" y="1277470"/>
-          <a:ext cx="9380220" cy="5163969"/>
+          <a:off x="25072040" y="1275229"/>
+          <a:ext cx="9729844" cy="4933128"/>
           <a:chOff x="0" y="0"/>
           <a:chExt cx="9380729" cy="5108449"/>
         </a:xfrm>
@@ -3833,18 +3836,18 @@
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="3" width="20.85546875" customWidth="1"/>
-    <col min="4" max="4" width="31.5703125" customWidth="1"/>
-    <col min="5" max="5" width="34.42578125" customWidth="1"/>
-    <col min="6" max="6" width="38.7109375" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" customWidth="1"/>
+    <col min="3" max="3" width="20.88671875" customWidth="1"/>
+    <col min="4" max="4" width="31.5546875" customWidth="1"/>
+    <col min="5" max="5" width="34.44140625" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
     <col min="7" max="7" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="119" t="s">
         <v>693</v>
       </c>
@@ -3867,7 +3870,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="9"/>
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
@@ -3876,7 +3879,7 @@
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>1</v>
       </c>
@@ -3897,7 +3900,7 @@
       </c>
       <c r="G3" s="9"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>2</v>
       </c>
@@ -3918,7 +3921,7 @@
       </c>
       <c r="G4" s="9"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>3</v>
       </c>
@@ -3939,7 +3942,7 @@
       </c>
       <c r="G5" s="9"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>4</v>
       </c>
@@ -3960,7 +3963,7 @@
       </c>
       <c r="G6" s="9"/>
     </row>
-    <row r="7" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>5</v>
       </c>
@@ -3979,7 +3982,7 @@
       </c>
       <c r="G7" s="9"/>
     </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>6</v>
       </c>
@@ -3998,7 +4001,7 @@
       </c>
       <c r="G8" s="9"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>7</v>
       </c>
@@ -4019,7 +4022,7 @@
       </c>
       <c r="G9" s="9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>8</v>
       </c>
@@ -4040,7 +4043,7 @@
       </c>
       <c r="G10" s="9"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>9</v>
       </c>
@@ -4061,7 +4064,7 @@
       </c>
       <c r="G11" s="9"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>10</v>
       </c>
@@ -4082,7 +4085,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:7" ht="90" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" ht="72" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>11</v>
       </c>
@@ -4103,7 +4106,7 @@
       </c>
       <c r="G13" s="9"/>
     </row>
-    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>12</v>
       </c>
@@ -4124,7 +4127,7 @@
       </c>
       <c r="G14" s="9"/>
     </row>
-    <row r="15" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>13</v>
       </c>
@@ -4143,7 +4146,7 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
     </row>
-    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>14</v>
       </c>
@@ -4162,7 +4165,7 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>15</v>
       </c>
@@ -4173,7 +4176,7 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>16</v>
       </c>
@@ -4184,7 +4187,7 @@
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>17</v>
       </c>
@@ -4195,7 +4198,7 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>18</v>
       </c>
@@ -4206,7 +4209,7 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>19</v>
       </c>
@@ -4217,7 +4220,7 @@
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>20</v>
       </c>
@@ -4228,7 +4231,7 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>21</v>
       </c>
@@ -4239,7 +4242,7 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>22</v>
       </c>
@@ -4261,30 +4264,30 @@
   <dimension ref="A1:BA198"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="2" topLeftCell="D163" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B86" sqref="B86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.28515625" customWidth="1"/>
+    <col min="1" max="1" width="35.33203125" customWidth="1"/>
     <col min="2" max="2" width="29" customWidth="1"/>
-    <col min="3" max="3" width="11.42578125" customWidth="1"/>
-    <col min="4" max="4" width="22.140625" customWidth="1"/>
-    <col min="6" max="7" width="20.7109375" customWidth="1"/>
-    <col min="8" max="11" width="20.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="20.7109375" style="114" customWidth="1"/>
-    <col min="13" max="17" width="20.7109375" style="1" customWidth="1"/>
-    <col min="42" max="42" width="41.42578125" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.44140625" customWidth="1"/>
+    <col min="4" max="4" width="22.109375" customWidth="1"/>
+    <col min="6" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="11" width="20.6640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20.6640625" style="114" customWidth="1"/>
+    <col min="13" max="17" width="20.6640625" style="1" customWidth="1"/>
+    <col min="42" max="42" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16.5546875" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="94" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:53" ht="28.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>36</v>
       </c>
@@ -4355,7 +4358,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:53" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>35</v>
       </c>
@@ -4406,7 +4409,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="3" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -4473,7 +4476,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>33</v>
       </c>
@@ -4544,7 +4547,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>34</v>
       </c>
@@ -4623,7 +4626,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -4716,7 +4719,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>32</v>
       </c>
@@ -4809,7 +4812,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>29</v>
       </c>
@@ -4903,7 +4906,7 @@
       </c>
       <c r="BA8" s="26"/>
     </row>
-    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -4996,7 +4999,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5089,7 +5092,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>69</v>
       </c>
@@ -5180,7 +5183,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="136" t="s">
         <v>10</v>
       </c>
@@ -5273,7 +5276,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:53" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>377</v>
       </c>
@@ -5366,7 +5369,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="14" spans="1:53" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:53" x14ac:dyDescent="0.3">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="F14" s="20"/>
@@ -5432,7 +5435,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="15" spans="1:53" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:53" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="30" t="s">
         <v>97</v>
       </c>
@@ -5527,7 +5530,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="16" spans="1:53" s="67" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:53" s="67" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="137" t="s">
         <v>390</v>
       </c>
@@ -5594,7 +5597,7 @@
       <c r="AP16" s="65"/>
       <c r="AQ16" s="65"/>
     </row>
-    <row r="17" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>113</v>
       </c>
@@ -5687,7 +5690,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="18" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>113</v>
       </c>
@@ -5780,7 +5783,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A19" s="136" t="s">
         <v>118</v>
       </c>
@@ -5867,7 +5870,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A20" s="136" t="s">
         <v>118</v>
       </c>
@@ -5954,7 +5957,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A21" s="136" t="s">
         <v>118</v>
       </c>
@@ -6041,7 +6044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>108</v>
       </c>
@@ -6128,7 +6131,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A23" s="136" t="s">
         <v>114</v>
       </c>
@@ -6230,7 +6233,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>101</v>
       </c>
@@ -6332,7 +6335,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>126</v>
       </c>
@@ -6444,7 +6447,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A26" s="58" t="str">
         <f>"Volumen bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Volumen bei 100 mm Bauhöhe</v>
@@ -6549,7 +6552,7 @@
       <c r="AS26" s="157"/>
       <c r="AT26" s="157"/>
     </row>
-    <row r="27" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A27" s="58" t="str">
         <f>"Gewicht bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Gewicht bei 100 mm Bauhöhe</v>
@@ -6662,7 +6665,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="28" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>488</v>
       </c>
@@ -6761,7 +6764,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="29" spans="1:46" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:46" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
         <v>99</v>
       </c>
@@ -6865,7 +6868,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>106</v>
       </c>
@@ -6967,7 +6970,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>101</v>
       </c>
@@ -7069,7 +7072,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="32" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>108</v>
       </c>
@@ -7169,7 +7172,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A33" s="58" t="str">
         <f>"Volumen bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Volumen bei 100 mm Bauhöhe</v>
@@ -7272,7 +7275,7 @@
       <c r="AS33" s="36"/>
       <c r="AT33" s="36"/>
     </row>
-    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A34" s="58" t="str">
         <f>"Gewicht bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Gewicht bei 100 mm Bauhöhe</v>
@@ -7375,7 +7378,7 @@
       <c r="AS34" s="36"/>
       <c r="AT34" s="36"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="F35" s="33"/>
@@ -7436,7 +7439,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="36" spans="1:46" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:46" s="14" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
         <v>90</v>
       </c>
@@ -7518,7 +7521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="37" spans="1:46" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:46" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="145" t="s">
         <v>11</v>
       </c>
@@ -7589,7 +7592,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="38" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:46" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="142" t="s">
         <v>70</v>
       </c>
@@ -7653,7 +7656,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="39" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>78</v>
       </c>
@@ -7720,7 +7723,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="40" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -7787,7 +7790,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="41" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>47</v>
       </c>
@@ -7854,7 +7857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A42" s="138" t="s">
         <v>53</v>
       </c>
@@ -7921,7 +7924,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="43" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -7980,7 +7983,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>52</v>
       </c>
@@ -8037,7 +8040,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>76</v>
       </c>
@@ -8080,7 +8083,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:46" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:46" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="138" t="s">
         <v>379</v>
       </c>
@@ -8135,7 +8138,7 @@
       <c r="AN46" s="146"/>
       <c r="AO46" s="146"/>
     </row>
-    <row r="47" spans="1:46" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:46" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="138" t="s">
         <v>131</v>
       </c>
@@ -8201,7 +8204,7 @@
       <c r="AN47" s="146"/>
       <c r="AO47" s="146"/>
     </row>
-    <row r="48" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:46" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>388</v>
       </c>
@@ -8265,12 +8268,12 @@
       <c r="AN48" s="52"/>
       <c r="AO48" s="52"/>
     </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>376</v>
       </c>
       <c r="B49" s="139" t="s">
-        <v>46</v>
+        <v>775</v>
       </c>
       <c r="C49" t="s">
         <v>124</v>
@@ -8327,7 +8330,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>101</v>
       </c>
@@ -8393,7 +8396,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="51" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>396</v>
       </c>
@@ -8440,7 +8443,7 @@
       <c r="AN51" s="52"/>
       <c r="AO51" s="52"/>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>108</v>
       </c>
@@ -8474,7 +8477,7 @@
         <v>7.45</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>378</v>
       </c>
@@ -8509,7 +8512,7 @@
       </c>
       <c r="Q53" s="55"/>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A54" s="58" t="str">
         <f>"Volumen bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Volumen bei 100 mm Bauhöhe</v>
@@ -8551,7 +8554,7 @@
         <v>0.89871000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A55" s="58" t="str">
         <f>"Gewicht bei "&amp;TEXT(F25,0)&amp; " mm Bauhöhe"</f>
         <v>Gewicht bei 100 mm Bauhöhe</v>
@@ -8593,7 +8596,7 @@
         <v>6.6953895000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="F56" s="9"/>
@@ -8608,7 +8611,7 @@
       <c r="O56" s="9"/>
       <c r="P56" s="9"/>
     </row>
-    <row r="57" spans="1:41" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:41" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
         <v>471</v>
       </c>
@@ -8629,14 +8632,14 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
     </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:41" x14ac:dyDescent="0.3">
       <c r="K58" s="105"/>
       <c r="N58" s="105"/>
       <c r="O58" s="105"/>
       <c r="P58" s="105"/>
       <c r="Q58" s="105"/>
     </row>
-    <row r="59" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A59" s="150" t="s">
         <v>14</v>
       </c>
@@ -8663,7 +8666,7 @@
         <v>484.21116825000001</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A60" s="150"/>
       <c r="B60" s="3"/>
       <c r="C60" t="s">
@@ -8688,7 +8691,7 @@
         <v>953.27968250000004</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A61" s="150"/>
       <c r="B61" s="3"/>
       <c r="C61" t="s">
@@ -8713,7 +8716,7 @@
         <v>1425.1152125000001</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A62" s="150"/>
       <c r="B62" s="3"/>
       <c r="C62" t="s">
@@ -8738,7 +8741,7 @@
         <v>1897.6508475000001</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A63" s="150"/>
       <c r="B63" s="3"/>
       <c r="C63" t="s">
@@ -8763,7 +8766,7 @@
         <v>2312.86609</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:41" x14ac:dyDescent="0.3">
       <c r="A64" s="150"/>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
@@ -8788,7 +8791,7 @@
         <v>2718.0503125</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="150"/>
       <c r="B65" s="3"/>
       <c r="C65" t="s">
@@ -8813,7 +8816,7 @@
         <v>3111.2565374999999</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="150"/>
       <c r="B66" s="3"/>
       <c r="C66" t="s">
@@ -8838,7 +8841,7 @@
         <v>3471.3919449999999</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="150"/>
       <c r="B67" s="3"/>
       <c r="C67" t="s">
@@ -8863,7 +8866,7 @@
         <v>3820.2272149999999</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="150"/>
       <c r="B68" s="3"/>
       <c r="C68" t="s">
@@ -8888,7 +8891,7 @@
         <v>4149.5731900000001</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="150"/>
       <c r="B69" s="3"/>
       <c r="C69" t="s">
@@ -8913,7 +8916,7 @@
         <v>4444.4692974999998</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="150"/>
       <c r="B70" s="3"/>
       <c r="C70" t="s">
@@ -8938,7 +8941,7 @@
         <v>4717.0675124999998</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="150"/>
       <c r="B71" s="3"/>
       <c r="C71" t="s">
@@ -8963,7 +8966,7 @@
         <v>4974.3385199999993</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="150"/>
       <c r="B72" s="3"/>
       <c r="C72" t="s">
@@ -8988,7 +8991,7 @@
         <v>5214.5657124999998</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="150"/>
       <c r="B73" s="3"/>
       <c r="C73" t="s">
@@ -9013,7 +9016,7 @@
         <v>5458.4576724999997</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="107" t="s">
         <v>466</v>
       </c>
@@ -9042,7 +9045,7 @@
       </c>
       <c r="Q74" s="105"/>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="107" t="s">
         <v>467</v>
       </c>
@@ -9071,7 +9074,7 @@
       </c>
       <c r="Q75" s="105"/>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="107" t="s">
         <v>468</v>
       </c>
@@ -9094,7 +9097,7 @@
         <v>-2.0000000000000001E-4</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>16</v>
       </c>
@@ -9117,17 +9120,17 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:17" s="14" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:17" s="14" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A81" s="25" t="s">
         <v>17</v>
       </c>
@@ -9164,7 +9167,7 @@
       </c>
       <c r="Q81" s="13"/>
     </row>
-    <row r="82" spans="1:17" s="145" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:17" s="145" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A82" s="145" t="s">
         <v>389</v>
       </c>
@@ -9205,7 +9208,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>416</v>
       </c>
@@ -9239,7 +9242,7 @@
       </c>
       <c r="Q83" s="19"/>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>417</v>
       </c>
@@ -9267,7 +9270,7 @@
       <c r="P84" s="19"/>
       <c r="Q84" s="19"/>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>409</v>
       </c>
@@ -9299,7 +9302,7 @@
         <v>1.32</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="139" t="s">
         <v>401</v>
       </c>
@@ -9336,7 +9339,7 @@
       </c>
       <c r="Q86" s="9"/>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>400</v>
       </c>
@@ -9376,7 +9379,7 @@
       </c>
       <c r="Q87" s="55"/>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>393</v>
       </c>
@@ -9413,7 +9416,7 @@
       </c>
       <c r="Q88" s="9"/>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>404</v>
       </c>
@@ -9450,7 +9453,7 @@
       </c>
       <c r="Q89" s="9"/>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>403</v>
       </c>
@@ -9494,7 +9497,7 @@
       </c>
       <c r="Q90" s="9"/>
     </row>
-    <row r="91" spans="1:17" s="138" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:17" s="138" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A91" s="136" t="s">
         <v>101</v>
       </c>
@@ -9531,7 +9534,7 @@
       </c>
       <c r="Q91" s="145"/>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>396</v>
       </c>
@@ -9568,7 +9571,7 @@
       </c>
       <c r="Q92" s="9"/>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="138" t="s">
         <v>407</v>
       </c>
@@ -9605,7 +9608,7 @@
       </c>
       <c r="Q93" s="9"/>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>408</v>
       </c>
@@ -9644,7 +9647,7 @@
         <v>1.4580000000000002</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>411</v>
       </c>
@@ -9676,7 +9679,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>431</v>
       </c>
@@ -9713,7 +9716,7 @@
       </c>
       <c r="Q96" s="9"/>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>419</v>
       </c>
@@ -9750,7 +9753,7 @@
       </c>
       <c r="Q97" s="9"/>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>420</v>
       </c>
@@ -9781,7 +9784,7 @@
       <c r="P98" s="78"/>
       <c r="Q98" s="9"/>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>414</v>
       </c>
@@ -9823,7 +9826,7 @@
       </c>
       <c r="Q99" s="9"/>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="58" t="str">
         <f>"Aktivkupfer bei "&amp;TEXT($F$25,0)&amp; " mm Bauhöhe"</f>
         <v>Aktivkupfer bei 100 mm Bauhöhe</v>
@@ -9866,7 +9869,7 @@
       </c>
       <c r="Q100" s="9"/>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>422</v>
       </c>
@@ -9908,7 +9911,7 @@
       </c>
       <c r="Q101" s="9"/>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="139" t="s">
         <v>489</v>
       </c>
@@ -9942,7 +9945,7 @@
       </c>
       <c r="Q102" s="9"/>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>491</v>
       </c>
@@ -9983,7 +9986,7 @@
       </c>
       <c r="Q103" s="9"/>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>493</v>
       </c>
@@ -10024,7 +10027,7 @@
       </c>
       <c r="Q104" s="9"/>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>494</v>
       </c>
@@ -10065,7 +10068,7 @@
       </c>
       <c r="Q105" s="9"/>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>495</v>
       </c>
@@ -10106,7 +10109,7 @@
       </c>
       <c r="Q106" s="9"/>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>734</v>
       </c>
@@ -10147,7 +10150,7 @@
       </c>
       <c r="Q107" s="9"/>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>741</v>
       </c>
@@ -10191,7 +10194,7 @@
       </c>
       <c r="Q108" s="9"/>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="139" t="s">
         <v>741</v>
       </c>
@@ -10224,7 +10227,7 @@
       </c>
       <c r="Q109" s="145"/>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>738</v>
       </c>
@@ -10268,7 +10271,7 @@
       </c>
       <c r="Q110" s="122"/>
     </row>
-    <row r="111" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:17" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A111" s="93" t="s">
         <v>424</v>
       </c>
@@ -10305,7 +10308,7 @@
       </c>
       <c r="Q111" s="56"/>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>437</v>
       </c>
@@ -10344,7 +10347,7 @@
       </c>
       <c r="Q112" s="28"/>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="88" t="s">
         <v>444</v>
       </c>
@@ -10383,7 +10386,7 @@
       </c>
       <c r="Q113" s="28"/>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>433</v>
       </c>
@@ -10422,7 +10425,7 @@
       </c>
       <c r="Q114" s="28"/>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="88" t="s">
         <v>438</v>
       </c>
@@ -10461,7 +10464,7 @@
       </c>
       <c r="Q115" s="28"/>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="88" t="s">
         <v>445</v>
       </c>
@@ -10500,7 +10503,7 @@
       </c>
       <c r="Q116" s="28"/>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="88" t="s">
         <v>435</v>
       </c>
@@ -10539,7 +10542,7 @@
       </c>
       <c r="Q117" s="28"/>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="58" t="str">
         <f>"Verguss gesamt bei "&amp;TEXT($F$25,0)&amp; " mm Bauhöhe"</f>
         <v>Verguss gesamt bei 100 mm Bauhöhe</v>
@@ -10586,7 +10589,7 @@
       </c>
       <c r="Q118" s="28"/>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>101</v>
       </c>
@@ -10625,7 +10628,7 @@
       </c>
       <c r="Q119" s="28"/>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>396</v>
       </c>
@@ -10664,7 +10667,7 @@
       </c>
       <c r="Q120" s="28"/>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>108</v>
       </c>
@@ -10703,7 +10706,7 @@
       </c>
       <c r="Q121" s="28"/>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>429</v>
       </c>
@@ -10742,7 +10745,7 @@
       </c>
       <c r="Q122" s="28"/>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>432</v>
       </c>
@@ -10781,7 +10784,7 @@
       </c>
       <c r="Q123" s="28"/>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="30" t="s">
         <v>446</v>
       </c>
@@ -10804,7 +10807,7 @@
       <c r="P124" s="94"/>
       <c r="Q124" s="96"/>
     </row>
-    <row r="125" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A125" s="88" t="s">
         <v>462</v>
       </c>
@@ -10829,7 +10832,7 @@
       <c r="P125" s="101"/>
       <c r="Q125" s="103"/>
     </row>
-    <row r="126" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" s="99" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A126" s="88" t="s">
         <v>459</v>
       </c>
@@ -10851,7 +10854,7 @@
       <c r="P126" s="101"/>
       <c r="Q126" s="103"/>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>452</v>
       </c>
@@ -10888,7 +10891,7 @@
       </c>
       <c r="Q127" s="28"/>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="2" t="s">
         <v>448</v>
       </c>
@@ -10927,7 +10930,7 @@
       </c>
       <c r="Q128" s="28"/>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="2" t="s">
         <v>448</v>
       </c>
@@ -10966,7 +10969,7 @@
       </c>
       <c r="Q129" s="28"/>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="2" t="s">
         <v>449</v>
       </c>
@@ -11005,7 +11008,7 @@
       </c>
       <c r="Q130" s="28"/>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="2" t="s">
         <v>449</v>
       </c>
@@ -11044,7 +11047,7 @@
       </c>
       <c r="Q131" s="28"/>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>450</v>
       </c>
@@ -11083,7 +11086,7 @@
       </c>
       <c r="Q132" s="28"/>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="2" t="s">
         <v>450</v>
       </c>
@@ -11122,7 +11125,7 @@
       </c>
       <c r="Q133" s="28"/>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="2" t="s">
         <v>454</v>
       </c>
@@ -11161,7 +11164,7 @@
       </c>
       <c r="Q134" s="28"/>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="2" t="s">
         <v>454</v>
       </c>
@@ -11200,7 +11203,7 @@
       </c>
       <c r="Q135" s="28"/>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D136" s="82"/>
       <c r="E136" s="82"/>
       <c r="F136" s="81"/>
@@ -11216,7 +11219,7 @@
       <c r="P136" s="81"/>
       <c r="Q136" s="28"/>
     </row>
-    <row r="137" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A137" s="22" t="s">
         <v>18</v>
       </c>
@@ -11237,23 +11240,23 @@
       <c r="P137" s="12"/>
       <c r="Q137" s="12"/>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>22</v>
       </c>
       <c r="G139" s="26"/>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H141" s="122"/>
       <c r="I141" s="122"/>
       <c r="J141" s="122"/>
@@ -11265,7 +11268,7 @@
       <c r="P141" s="122"/>
       <c r="Q141" s="122"/>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="H142" s="122"/>
       <c r="I142" s="122"/>
       <c r="J142" s="122"/>
@@ -11277,7 +11280,7 @@
       <c r="P142" s="122"/>
       <c r="Q142" s="122"/>
     </row>
-    <row r="144" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A144" s="22" t="s">
         <v>20</v>
       </c>
@@ -11298,7 +11301,7 @@
       <c r="P144" s="12"/>
       <c r="Q144" s="12"/>
     </row>
-    <row r="145" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A145" s="123" t="s">
         <v>751</v>
       </c>
@@ -11339,7 +11342,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="146" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A146" s="123" t="s">
         <v>717</v>
       </c>
@@ -11380,7 +11383,7 @@
         <v>0.57799999999999996</v>
       </c>
     </row>
-    <row r="147" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A147" s="123" t="s">
         <v>718</v>
       </c>
@@ -11421,7 +11424,7 @@
         <v>0.317</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="123" t="s">
         <v>719</v>
       </c>
@@ -11459,7 +11462,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="149" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A149" s="123" t="s">
         <v>720</v>
       </c>
@@ -11497,7 +11500,7 @@
         <v>1.93</v>
       </c>
     </row>
-    <row r="150" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:17" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A150" s="123" t="s">
         <v>752</v>
       </c>
@@ -11535,7 +11538,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="151" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A151" s="125" t="s">
         <v>727</v>
       </c>
@@ -11588,7 +11591,7 @@
       </c>
       <c r="Q151" s="122"/>
     </row>
-    <row r="153" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A153" s="22" t="s">
         <v>21</v>
       </c>
@@ -11609,7 +11612,7 @@
       <c r="P153" s="12"/>
       <c r="Q153" s="12"/>
     </row>
-    <row r="154" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>481</v>
       </c>
@@ -11648,7 +11651,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="155" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>476</v>
       </c>
@@ -11680,7 +11683,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="156" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>774</v>
       </c>
@@ -11719,7 +11722,7 @@
         <v>1.2499999999999997E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>477</v>
       </c>
@@ -11758,7 +11761,7 @@
         <v>4.1666666666666657E-3</v>
       </c>
     </row>
-    <row r="158" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>482</v>
       </c>
@@ -11797,7 +11800,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="159" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>484</v>
       </c>
@@ -11840,7 +11843,7 @@
       </c>
       <c r="Q159" s="106"/>
     </row>
-    <row r="160" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>770</v>
       </c>
@@ -11883,7 +11886,7 @@
       </c>
       <c r="Q160" s="106"/>
     </row>
-    <row r="161" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>712</v>
       </c>
@@ -11926,7 +11929,7 @@
       </c>
       <c r="Q161" s="106"/>
     </row>
-    <row r="162" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>713</v>
       </c>
@@ -11965,7 +11968,7 @@
         <v>80.74934098573749</v>
       </c>
     </row>
-    <row r="164" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A164" s="22" t="s">
         <v>472</v>
       </c>
@@ -11986,7 +11989,7 @@
       <c r="P164" s="12"/>
       <c r="Q164" s="12"/>
     </row>
-    <row r="165" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>54</v>
       </c>
@@ -12019,7 +12022,7 @@
       </c>
       <c r="Q165" s="121"/>
     </row>
-    <row r="166" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>55</v>
       </c>
@@ -12052,7 +12055,7 @@
       </c>
       <c r="Q166" s="121"/>
     </row>
-    <row r="167" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>56</v>
       </c>
@@ -12081,7 +12084,7 @@
       </c>
       <c r="Q167" s="121"/>
     </row>
-    <row r="168" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>57</v>
       </c>
@@ -12098,7 +12101,7 @@
       <c r="L168" s="121"/>
       <c r="M168" s="121"/>
       <c r="N168" s="121">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O168" s="121"/>
       <c r="P168" s="121">
@@ -12106,7 +12109,7 @@
       </c>
       <c r="Q168" s="121"/>
     </row>
-    <row r="169" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>58</v>
       </c>
@@ -12127,7 +12130,7 @@
       <c r="P169" s="121"/>
       <c r="Q169" s="121"/>
     </row>
-    <row r="170" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>59</v>
       </c>
@@ -12156,7 +12159,7 @@
       </c>
       <c r="Q170" s="121"/>
     </row>
-    <row r="171" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>60</v>
       </c>
@@ -12177,7 +12180,7 @@
       <c r="P171" s="121"/>
       <c r="Q171" s="121"/>
     </row>
-    <row r="172" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>61</v>
       </c>
@@ -12198,7 +12201,7 @@
       <c r="P172" s="121"/>
       <c r="Q172" s="121"/>
     </row>
-    <row r="173" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>62</v>
       </c>
@@ -12221,7 +12224,7 @@
       </c>
       <c r="Q173" s="121"/>
     </row>
-    <row r="174" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D174" s="121"/>
       <c r="E174" s="121"/>
       <c r="F174" s="121"/>
@@ -12237,7 +12240,7 @@
       <c r="P174" s="121"/>
       <c r="Q174" s="121"/>
     </row>
-    <row r="175" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A175" s="22" t="s">
         <v>470</v>
       </c>
@@ -12258,7 +12261,7 @@
       <c r="P175" s="12"/>
       <c r="Q175" s="12"/>
     </row>
-    <row r="176" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>474</v>
       </c>
@@ -12279,7 +12282,7 @@
       </c>
       <c r="Q176" s="105"/>
     </row>
-    <row r="177" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>760</v>
       </c>
@@ -12314,7 +12317,7 @@
       </c>
       <c r="Q177" s="130"/>
     </row>
-    <row r="178" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>54</v>
       </c>
@@ -12337,7 +12340,7 @@
         <v>3.0390911999999997</v>
       </c>
     </row>
-    <row r="179" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>55</v>
       </c>
@@ -12350,7 +12353,7 @@
         <v>7.4325600000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>56</v>
       </c>
@@ -12363,7 +12366,7 @@
         <v>4.9550400000000003</v>
       </c>
     </row>
-    <row r="181" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>57</v>
       </c>
@@ -12376,7 +12379,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="182" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>58</v>
       </c>
@@ -12389,7 +12392,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="183" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>59</v>
       </c>
@@ -12402,7 +12405,7 @@
         <v>2.4775200000000002</v>
       </c>
     </row>
-    <row r="184" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>60</v>
       </c>
@@ -12415,7 +12418,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="185" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>61</v>
       </c>
@@ -12428,7 +12431,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="186" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>62</v>
       </c>
@@ -12441,7 +12444,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="188" spans="1:17" s="24" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:17" s="24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A188" s="22" t="s">
         <v>471</v>
       </c>
@@ -12462,7 +12465,7 @@
       <c r="P188" s="12"/>
       <c r="Q188" s="12"/>
     </row>
-    <row r="189" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>473</v>
       </c>
@@ -12481,7 +12484,7 @@
       <c r="P189" s="105"/>
       <c r="Q189" s="105"/>
     </row>
-    <row r="190" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>54</v>
       </c>
@@ -12494,7 +12497,7 @@
         <v>31.533983877810783</v>
       </c>
     </row>
-    <row r="191" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>55</v>
       </c>
@@ -12507,7 +12510,7 @@
         <v>15.766991938905392</v>
       </c>
     </row>
-    <row r="192" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>56</v>
       </c>
@@ -12520,7 +12523,7 @@
         <v>10.511327959270259</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>57</v>
       </c>
@@ -12533,7 +12536,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>58</v>
       </c>
@@ -12546,7 +12549,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>59</v>
       </c>
@@ -12559,7 +12562,7 @@
         <v>5.2556639796351297</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>60</v>
       </c>
@@ -12572,7 +12575,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>61</v>
       </c>
@@ -12585,7 +12588,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>62</v>
       </c>
@@ -12647,16 +12650,16 @@
       <selection activeCell="I216" sqref="I216"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" style="9" customWidth="1"/>
-    <col min="2" max="2" width="41.5703125" style="9" customWidth="1"/>
-    <col min="3" max="3" width="14.140625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="117" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="9"/>
+    <col min="1" max="1" width="45.88671875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="41.5546875" style="9" customWidth="1"/>
+    <col min="3" max="3" width="14.109375" style="9" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="117" customWidth="1"/>
+    <col min="5" max="16384" width="11.44140625" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="115" t="s">
         <v>502</v>
       </c>
@@ -12670,7 +12673,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>543</v>
       </c>
@@ -12684,7 +12687,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
         <v>544</v>
       </c>
@@ -12698,7 +12701,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="9" t="s">
         <v>545</v>
       </c>
@@ -12712,7 +12715,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="115" t="s">
         <v>497</v>
       </c>
@@ -12720,7 +12723,7 @@
       <c r="C5" s="115"/>
       <c r="D5" s="116"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>546</v>
       </c>
@@ -12734,7 +12737,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>547</v>
       </c>
@@ -12748,7 +12751,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>548</v>
       </c>
@@ -12762,7 +12765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>549</v>
       </c>
@@ -12776,7 +12779,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="115" t="s">
         <v>498</v>
       </c>
@@ -12784,7 +12787,7 @@
       <c r="C10" s="115"/>
       <c r="D10" s="116"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>550</v>
       </c>
@@ -12798,7 +12801,7 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
         <v>551</v>
       </c>
@@ -12812,7 +12815,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>552</v>
       </c>
@@ -12826,7 +12829,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
         <v>553</v>
       </c>
@@ -12840,7 +12843,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
         <v>554</v>
       </c>
@@ -12854,7 +12857,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="9" t="s">
         <v>555</v>
       </c>
@@ -12868,7 +12871,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="9" t="s">
         <v>556</v>
       </c>
@@ -12882,7 +12885,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>557</v>
       </c>
@@ -12896,7 +12899,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>558</v>
       </c>
@@ -12910,7 +12913,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
         <v>559</v>
       </c>
@@ -12924,7 +12927,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="9" t="s">
         <v>560</v>
       </c>
@@ -12938,7 +12941,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="115" t="s">
         <v>499</v>
       </c>
@@ -12946,7 +12949,7 @@
       <c r="C22" s="115"/>
       <c r="D22" s="116"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="9" t="s">
         <v>561</v>
       </c>
@@ -12960,7 +12963,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="9" t="s">
         <v>470</v>
       </c>
@@ -12974,7 +12977,7 @@
         <v>2740</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="9" t="s">
         <v>562</v>
       </c>
@@ -12988,7 +12991,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="9" t="s">
         <v>563</v>
       </c>
@@ -13002,7 +13005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="9" t="s">
         <v>564</v>
       </c>
@@ -13016,7 +13019,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="9" t="s">
         <v>565</v>
       </c>
@@ -13030,7 +13033,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="9" t="s">
         <v>566</v>
       </c>
@@ -13044,7 +13047,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>567</v>
       </c>
@@ -13058,7 +13061,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>568</v>
       </c>
@@ -13072,7 +13075,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="9" t="s">
         <v>569</v>
       </c>
@@ -13086,7 +13089,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" s="9" t="s">
         <v>570</v>
       </c>
@@ -13100,7 +13103,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="115" t="s">
         <v>500</v>
       </c>
@@ -13108,7 +13111,7 @@
       <c r="C34" s="115"/>
       <c r="D34" s="116"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" s="9" t="s">
         <v>571</v>
       </c>
@@ -13122,7 +13125,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" s="9" t="s">
         <v>572</v>
       </c>
@@ -13136,7 +13139,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" s="9" t="s">
         <v>573</v>
       </c>
@@ -13150,7 +13153,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" s="9" t="s">
         <v>574</v>
       </c>
@@ -13164,7 +13167,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="115" t="s">
         <v>501</v>
       </c>
@@ -13172,7 +13175,7 @@
       <c r="C39" s="115"/>
       <c r="D39" s="116"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" s="9" t="s">
         <v>571</v>
       </c>
@@ -13183,7 +13186,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>572</v>
       </c>
@@ -13194,7 +13197,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>573</v>
       </c>
@@ -13205,7 +13208,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" s="9" t="s">
         <v>574</v>
       </c>
@@ -13216,7 +13219,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="115" t="s">
         <v>0</v>
       </c>
@@ -13230,7 +13233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" s="9" t="s">
         <v>607</v>
       </c>
@@ -13244,7 +13247,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
         <v>608</v>
       </c>
@@ -13258,7 +13261,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" s="9" t="s">
         <v>609</v>
       </c>
@@ -13272,7 +13275,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" s="9" t="s">
         <v>610</v>
       </c>
@@ -13286,7 +13289,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" s="9" t="s">
         <v>611</v>
       </c>
@@ -13300,7 +13303,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" s="9" t="s">
         <v>612</v>
       </c>
@@ -13314,7 +13317,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" s="9" t="s">
         <v>613</v>
       </c>
@@ -13328,7 +13331,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" s="9" t="s">
         <v>614</v>
       </c>
@@ -13342,7 +13345,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
         <v>615</v>
       </c>
@@ -13356,7 +13359,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" s="9" t="s">
         <v>616</v>
       </c>
@@ -13370,7 +13373,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" s="9" t="s">
         <v>617</v>
       </c>
@@ -13384,7 +13387,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" s="9" t="s">
         <v>618</v>
       </c>
@@ -13398,7 +13401,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" s="9" t="s">
         <v>619</v>
       </c>
@@ -13412,7 +13415,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" s="9" t="s">
         <v>620</v>
       </c>
@@ -13426,7 +13429,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" s="9" t="s">
         <v>621</v>
       </c>
@@ -13440,7 +13443,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" s="9" t="s">
         <v>622</v>
       </c>
@@ -13454,7 +13457,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" s="9" t="s">
         <v>623</v>
       </c>
@@ -13468,7 +13471,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" s="9" t="s">
         <v>624</v>
       </c>
@@ -13482,7 +13485,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" s="9" t="s">
         <v>625</v>
       </c>
@@ -13496,7 +13499,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" s="9" t="s">
         <v>626</v>
       </c>
@@ -13510,7 +13513,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" s="9" t="s">
         <v>627</v>
       </c>
@@ -13524,7 +13527,7 @@
         <v>673</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" s="9" t="s">
         <v>628</v>
       </c>
@@ -13538,7 +13541,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" s="9" t="s">
         <v>629</v>
       </c>
@@ -13552,7 +13555,7 @@
         <v>678</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
         <v>630</v>
       </c>
